--- a/tests/pv.xlsx
+++ b/tests/pv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,36 +222,36 @@
           </rPr>
           <t xml:space="preserve">No value = zero for costs
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">revins:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">No value = Unused (single output)</t>
         </r>
       </text>
     </comment>
     <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">revins:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No value = Unused (single output)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t xml:space="preserve">Annualised capital costs</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t xml:space="preserve">capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed capital cost</t>
   </si>
   <si>
     <t xml:space="preserve">capital cost</t>
@@ -1118,7 +1121,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1280,10 +1283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1315,15 +1318,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>3500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,7 +1330,9 @@
       <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -1342,19 +1341,17 @@
       <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,18 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -1386,21 +1387,28 @@
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1441,7 +1449,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1452,42 +1460,42 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1528,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>12</v>
@@ -1534,15 +1542,15 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
@@ -1553,7 +1561,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,17 +1572,17 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>50</v>
@@ -1663,12 +1671,12 @@
         <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -1676,18 +1684,18 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,22 +1705,22 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1745,37 +1753,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1809,62 +1817,62 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
